--- a/data/trans_dic/IQ23_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IQ23_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/IQ23_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IQ23_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,32%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,79%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,24%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>64,89; 79,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>61,07; 76,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,98; 79,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,35; 79,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,31; 72,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,53; 77,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,33; 72,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>51,63; 73,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>63,44; 75,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>62,56; 74,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,38; 74,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>55,0; 73,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,06%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,92%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>68,74; 76,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>68,51; 74,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>67,13; 74,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>67,63; 76,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>73,01; 78,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>68,97; 75,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>64,24; 70,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>64,69; 72,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>72,19; 76,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>69,7; 74,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>66,55; 71,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,28</t>
+          <t>66,93; 73,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,49%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,66%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,4%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>69,79; 80,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>68,51; 79,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>56,17; 68,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>67,5; 79,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>67,03; 78,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>64,71; 76,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>61,42; 72,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>69,73; 80,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>69,81; 78,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>68,66; 76,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>60,32; 68,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>70,46; 78,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,82%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,5%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>71,17; 76,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>69,15; 74,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>65,99; 71,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>68,29; 75,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>71,36; 76,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>68,87; 74,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>64,18; 69,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>66,64; 73,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>72,04; 75,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>69,57; 73,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>65,75; 69,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>68,1; 72,9</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,21</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
